--- a/OceanSubsidy/Template/SCI/OTech/附件-02海洋科技科專案計畫書/附件-02-2預定進度及查核標準-查核標準.xlsx
+++ b/OceanSubsidy/Template/SCI/OTech/附件-02海洋科技科專案計畫書/附件-02-2預定進度及查核標準-查核標準.xlsx
@@ -1,35 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\Downloads\整理好的_old-20250716T053644Z-1-001\整理好的_old\科專\業者\附件-02海洋科技科專案計畫書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\外包資料夾\OceanSubsidy\OceanSubsidy\Template\SCI\OTech\附件-02海洋科技科專案計畫書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA7EC2E-AEC0-42AF-BBBF-D721E225F1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2EE8C-947F-4D3A-9472-1A9231D5DB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk177672963" localSheetId="0">工作表1!$A$13</definedName>
-    <definedName name="_Hlk177674419" localSheetId="0">工作表1!$A$18</definedName>
+    <definedName name="_Hlk177672963" localSheetId="0">工作表1!$A$4</definedName>
+    <definedName name="_Hlk177674419" localSheetId="0">工作表1!$A$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>查核點編號</t>
   </si>
@@ -41,27 +44,6 @@
   </si>
   <si>
     <t>執行單位</t>
-  </si>
-  <si>
-    <t>A1.1</t>
-  </si>
-  <si>
-    <t>A2.1</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>Bn</t>
-  </si>
-  <si>
-    <t>Cn</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>註：</t>
@@ -370,12 +352,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -384,11 +363,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -673,26 +652,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="34.75" customWidth="1"/>
-    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,139 +685,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
